--- a/revC-fm/docs/mainboard-revC-assy-vendor-bom.xlsx
+++ b/revC-fm/docs/mainboard-revC-assy-vendor-bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjhillis\Documents\LOCAL\Github\mainboard-hardware\revC-fm\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A8389D-B09A-4901-9E23-BF9183E8171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D06F601-931D-458A-A9CC-5F68A092B0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C79C5929-986C-4625-85F3-6825221C0AD3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="544">
   <si>
     <t>Item</t>
   </si>
@@ -644,9 +644,6 @@
     <t>https://www.diodes.com/assets/Datasheets/ds30270.pdf</t>
   </si>
   <si>
-    <t>Q25, Q36, Q37, Q40, Q41, Q44, Q45, Q48, Q49, Q64</t>
-  </si>
-  <si>
     <t>MMDT5551-7-F</t>
   </si>
   <si>
@@ -659,12 +656,6 @@
     <t>http://www.diodes.com/_files/datasheets/ds30172.pdf</t>
   </si>
   <si>
-    <t>Q26</t>
-  </si>
-  <si>
-    <t>SierraLobo:MMDT2907</t>
-  </si>
-  <si>
     <t>Q28, Q29</t>
   </si>
   <si>
@@ -1412,9 +1403,6 @@
     <t>U6</t>
   </si>
   <si>
-    <t>MAX708RESA-T</t>
-  </si>
-  <si>
     <t>Package_SO:SO-8_3.9x4.9mm_P1.27mm</t>
   </si>
   <si>
@@ -1674,6 +1662,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Q25, Q26, Q36, Q37, Q40, Q41, Q44, Q45, Q48, Q49, Q64</t>
+  </si>
+  <si>
+    <t>MAX708RESA+T</t>
   </si>
 </sst>
 </file>
@@ -1765,14 +1759,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8048C436-D79B-417E-A19F-DC11947D9E12}" name="Table13" displayName="Table13" ref="A1:K115" totalsRowShown="0">
-  <autoFilter ref="A1:K115" xr:uid="{281CEE53-EEEE-4EE1-B760-63BAE3882920}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8048C436-D79B-417E-A19F-DC11947D9E12}" name="Table13" displayName="Table13" ref="A1:K114" totalsRowShown="0">
+  <autoFilter ref="A1:K114" xr:uid="{281CEE53-EEEE-4EE1-B760-63BAE3882920}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{3599F877-E8D2-4BC1-9177-A225A603E7F2}" name="Item"/>
     <tableColumn id="2" xr3:uid="{E2007DD6-16F5-422B-9F39-CE234B74E444}" name="Qty"/>
-    <tableColumn id="3" xr3:uid="{3CCED876-0B63-4650-8A21-7ED14DFC7421}" name="Reference(s)" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{3CCED876-0B63-4650-8A21-7ED14DFC7421}" name="Reference(s)" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="4" xr3:uid="{69D5BAA8-3250-45CC-9FE9-29B0543A69E8}" name="DNP"/>
-    <tableColumn id="7" xr3:uid="{494D8478-CCAB-4D70-8AE9-5CACF44A18F2}" name="Value" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{494D8478-CCAB-4D70-8AE9-5CACF44A18F2}" name="Value" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="8" xr3:uid="{218942BA-61BC-44AF-A328-AF2514BE4212}" name="Footprint" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{DA69FA6A-ACF4-457C-818F-1B355A84A4FB}" name="LibPart" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{77E96705-23EB-4169-AC9B-4CA61F7BFA58}" name="Manufacturer" dataDxfId="3"/>
@@ -2081,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353B833E-67E3-46CE-A89A-A0363835D4EA}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3349,275 +3343,278 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F40" t="s">
         <v>182</v>
       </c>
       <c r="G40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>91</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J40" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K40" t="s">
         <v>205</v>
-      </c>
-      <c r="K40" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G41" t="s">
         <v>208</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
+      </c>
+      <c r="K41" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G42" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K42" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F43" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>91</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K43" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F44" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="G44" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K44" t="s">
-        <v>225</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F45" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G45" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J45" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>59</v>
+      </c>
+      <c r="B46">
+        <v>61</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F46" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>39</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" t="s">
+        <v>238</v>
+      </c>
+      <c r="G47" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>61</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E48" s="2">
+        <v>330</v>
+      </c>
+      <c r="F48" t="s">
         <v>231</v>
       </c>
-      <c r="K45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>58</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="G48" t="s">
         <v>232</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="F46" t="s">
-        <v>234</v>
-      </c>
-      <c r="G46" t="s">
-        <v>235</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>59</v>
-      </c>
-      <c r="B47">
-        <v>61</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F47" t="s">
-        <v>241</v>
-      </c>
-      <c r="G47" t="s">
-        <v>235</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="K47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>60</v>
-      </c>
-      <c r="B48">
-        <v>39</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F48" t="s">
-        <v>241</v>
-      </c>
-      <c r="G48" t="s">
-        <v>235</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>247</v>
@@ -3631,31 +3628,31 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E49" s="2">
-        <v>330</v>
+      <c r="E49" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="F49" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G49" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -3663,31 +3660,31 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G50" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
@@ -3695,31 +3692,31 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F51" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G51" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -3727,31 +3724,31 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F52" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G52" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
@@ -3759,31 +3756,31 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F53" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="G53" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
@@ -3791,25 +3788,25 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
+      </c>
+      <c r="E54" s="2">
+        <v>499</v>
       </c>
       <c r="F54" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="G54" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>273</v>
@@ -3823,95 +3820,95 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E55" s="2">
-        <v>499</v>
+      <c r="E55" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="F55" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G55" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F56" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G56" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F57" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="G57" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -3919,31 +3916,31 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F58" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="G58" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
@@ -3951,31 +3948,31 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F59" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G59" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
@@ -3983,31 +3980,31 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F60" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G60" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
@@ -4015,31 +4012,31 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F61" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G61" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
@@ -4047,31 +4044,31 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F62" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
@@ -4079,31 +4076,31 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F63" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G63" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K63" t="s">
         <v>17</v>
@@ -4111,31 +4108,31 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F64" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G64" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
@@ -4143,31 +4140,31 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F65" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G65" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
@@ -4175,31 +4172,31 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F66" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G66" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K66" t="s">
         <v>17</v>
@@ -4207,31 +4204,31 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F67" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G67" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K67" t="s">
         <v>17</v>
@@ -4239,31 +4236,31 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F68" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G68" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K68" t="s">
         <v>17</v>
@@ -4271,57 +4268,57 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F69" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G69" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E70" s="2" t="s">
         <v>336</v>
       </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
       <c r="F70" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G70" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>337</v>
@@ -4333,33 +4330,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E71" s="2">
-        <v>0</v>
+      <c r="E71" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="F71" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G71" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K71" t="s">
         <v>17</v>
@@ -4367,31 +4364,31 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="F72" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="G72" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>236</v>
+        <v>344</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K72" t="s">
         <v>17</v>
@@ -4399,31 +4396,31 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="F73" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G73" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K73" t="s">
         <v>17</v>
@@ -4431,31 +4428,31 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F74" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="G74" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>347</v>
+        <v>233</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K74" t="s">
         <v>17</v>
@@ -4463,31 +4460,31 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K75" t="s">
         <v>17</v>
@@ -4495,31 +4492,31 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F76" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G76" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K76" t="s">
         <v>17</v>
@@ -4527,31 +4524,31 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F77" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G77" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K77" t="s">
         <v>17</v>
@@ -4559,25 +4556,25 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E78" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="E78" s="2">
+        <v>680</v>
+      </c>
       <c r="F78" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G78" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>368</v>
@@ -4591,31 +4588,31 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E79" s="2">
-        <v>680</v>
+      <c r="E79" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="F79" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G79" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K79" t="s">
         <v>17</v>
@@ -4623,25 +4620,25 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>374</v>
+        <v>243</v>
       </c>
       <c r="F80" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G80" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>375</v>
@@ -4655,7 +4652,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -4664,86 +4661,86 @@
         <v>377</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>246</v>
+        <v>378</v>
       </c>
       <c r="F81" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G81" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K81" t="s">
-        <v>17</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>381</v>
+        <v>237</v>
       </c>
       <c r="F82" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G82" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K82" t="s">
-        <v>384</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>240</v>
+        <v>386</v>
       </c>
       <c r="F83" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G83" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K83" t="s">
         <v>17</v>
@@ -4751,25 +4748,25 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E84" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="E84" s="2">
+        <v>220</v>
+      </c>
       <c r="F84" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G84" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>390</v>
@@ -4783,179 +4780,179 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E85" s="2">
-        <v>220</v>
+      <c r="E85" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="F85" t="s">
-        <v>234</v>
+        <v>393</v>
       </c>
       <c r="G85" t="s">
-        <v>235</v>
+        <v>394</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="K85" t="s">
-        <v>17</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F86" t="s">
+        <v>393</v>
+      </c>
+      <c r="G86" t="s">
+        <v>398</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="J86" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="G86" t="s">
-        <v>397</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F87" t="s">
+        <v>393</v>
+      </c>
+      <c r="G87" t="s">
         <v>400</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="H87" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J87" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="G87" t="s">
-        <v>401</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F88" t="s">
+        <v>393</v>
+      </c>
+      <c r="G88" t="s">
         <v>402</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="H88" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="G88" t="s">
-        <v>403</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F89" t="s">
+        <v>393</v>
+      </c>
+      <c r="G89" t="s">
         <v>404</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="H89" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G89" t="s">
-        <v>405</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>399</v>
+      <c r="K89" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="F90" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="G90" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>236</v>
+        <v>409</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="K90" t="s">
         <v>17</v>
@@ -4963,31 +4960,31 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F91" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G91" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H91" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="I91" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="J91" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K91" t="s">
         <v>17</v>
@@ -4995,301 +4992,298 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F92" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G92" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H92" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I92" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="J92" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="K92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B93">
+        <v>30</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F93" t="s">
+        <v>424</v>
+      </c>
+      <c r="G93" t="s">
+        <v>425</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K93" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>115</v>
+      </c>
+      <c r="B94">
         <v>1</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F93" t="s">
-        <v>422</v>
-      </c>
-      <c r="G93" t="s">
-        <v>423</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>113</v>
-      </c>
-      <c r="B94">
-        <v>30</v>
-      </c>
       <c r="C94" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F94" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G94" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="K94" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F95" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G95" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>436</v>
+        <v>107</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>437</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F96" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G96" t="s">
+        <v>444</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="J96" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F97" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G97" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H97" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I97" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="J97" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
+      </c>
+      <c r="K97" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F98" t="s">
+        <v>455</v>
+      </c>
+      <c r="G98" t="s">
+        <v>456</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F98" t="s">
-        <v>452</v>
-      </c>
-      <c r="G98" t="s">
-        <v>453</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="I98" s="2" t="s">
-        <v>451</v>
+        <v>543</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="K98" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F99" t="s">
+        <v>460</v>
+      </c>
+      <c r="G99" t="s">
+        <v>461</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="G99" t="s">
-        <v>460</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="J99" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="K99" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F100" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G100" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>107</v>
+        <v>433</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K100" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F101" t="s">
-        <v>470</v>
+        <v>225</v>
       </c>
       <c r="G101" t="s">
+        <v>472</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I101" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>473</v>
@@ -5297,10 +5291,10 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>474</v>
@@ -5309,10 +5303,10 @@
         <v>475</v>
       </c>
       <c r="F102" t="s">
-        <v>228</v>
+        <v>476</v>
       </c>
       <c r="G102" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>107</v>
@@ -5321,102 +5315,102 @@
         <v>475</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
+      </c>
+      <c r="K102" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F103" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G103" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>107</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="K103" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F104" t="s">
+        <v>486</v>
+      </c>
+      <c r="G104" t="s">
+        <v>487</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I104" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="G104" t="s">
-        <v>486</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="J104" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F105" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G105" t="s">
+        <v>493</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="H105" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="J105" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -5428,24 +5422,24 @@
         <v>495</v>
       </c>
       <c r="F106" t="s">
+        <v>431</v>
+      </c>
+      <c r="G106" t="s">
         <v>496</v>
       </c>
-      <c r="G106" t="s">
-        <v>497</v>
-      </c>
       <c r="H106" s="2" t="s">
-        <v>107</v>
+        <v>433</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>495</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -5457,257 +5451,228 @@
         <v>499</v>
       </c>
       <c r="F107" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="G107" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
+      </c>
+      <c r="K107" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F108" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G108" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J108" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="K108" t="s">
         <v>507</v>
-      </c>
-      <c r="K108" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F109" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="G109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="H109" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="J109" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K109" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F110" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G110" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H110" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="I110" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="J110" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K110" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F111" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G111" t="s">
+        <v>525</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I111" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H111" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="J111" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K111" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F112" t="s">
-        <v>528</v>
+        <v>182</v>
       </c>
       <c r="G112" t="s">
+        <v>530</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="H112" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="J112" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K112" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F113" t="s">
-        <v>182</v>
+        <v>535</v>
       </c>
       <c r="G113" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>107</v>
+        <v>537</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="K113" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>140</v>
+      <c r="A114" t="s">
+        <v>541</v>
       </c>
       <c r="B114">
-        <v>2</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F114" t="s">
-        <v>539</v>
-      </c>
-      <c r="G114" t="s">
-        <v>540</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="K114" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>545</v>
-      </c>
-      <c r="B115">
         <v>577</v>
       </c>
-      <c r="E115">
+      <c r="E114">
         <v>113</v>
       </c>
-      <c r="F115"/>
-      <c r="K115">
+      <c r="F114"/>
+      <c r="K114">
         <v>95</v>
       </c>
     </row>
